--- a/MES Report範圍與計畫時間_PwC建議.xlsx
+++ b/MES Report範圍與計畫時間_PwC建議.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="157">
   <si>
     <t>項次</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>EQGroup查詢(正式區)</t>
-  </si>
-  <si>
-    <t>主檔資訊</t>
   </si>
   <si>
     <t>EQGroup</t>
@@ -513,14 +510,9 @@
       <name val="PMingLiu"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Songti TC&quot;"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -528,9 +520,14 @@
       <name val="PMingLiu"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -646,7 +643,7 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -655,14 +652,14 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -674,7 +671,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1351,11 +1348,11 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="11" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1379,7 +1376,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="str">
@@ -1392,11 +1389,11 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1420,7 +1417,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="str">
@@ -1437,7 +1434,7 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1461,7 +1458,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="str">
@@ -1504,7 +1501,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="str">
@@ -1515,14 +1512,14 @@
       <c r="F15" s="9"/>
       <c r="G15" s="13"/>
       <c r="H15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -1545,7 +1542,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="str">
@@ -1562,7 +1559,7 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1586,7 +1583,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="str">
@@ -1627,7 +1624,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="str">
@@ -1640,11 +1637,11 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1668,7 +1665,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="str">
@@ -1709,7 +1706,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="str">
@@ -1726,7 +1723,7 @@
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1750,7 +1747,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="str">
@@ -1765,10 +1762,10 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -1791,7 +1788,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="str">
@@ -1808,7 +1805,7 @@
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1832,7 +1829,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="str">
@@ -1847,7 +1844,7 @@
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1871,7 +1868,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="str">
@@ -1882,11 +1879,11 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1953,7 +1950,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="str">
@@ -1990,7 +1987,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="8" t="str">
@@ -2005,7 +2002,7 @@
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -2029,7 +2026,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8" t="str">
@@ -2070,7 +2067,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="str">
@@ -2113,7 +2110,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="str">
@@ -2130,7 +2127,7 @@
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -2154,7 +2151,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8" t="str">
@@ -2197,7 +2194,7 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="8" t="str">
@@ -2214,7 +2211,7 @@
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -2238,7 +2235,7 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="8" t="str">
@@ -2277,7 +2274,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="8" t="str">
@@ -2293,7 +2290,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2316,7 +2313,7 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="str">
@@ -2333,10 +2330,10 @@
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -2359,7 +2356,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="8" t="str">
@@ -2400,7 +2397,7 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="8" t="str">
@@ -2415,10 +2412,10 @@
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -2441,7 +2438,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8" t="str">
@@ -2480,7 +2477,7 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8" t="str">
@@ -2519,7 +2516,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8" t="str">
@@ -2536,7 +2533,7 @@
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -2560,7 +2557,7 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8" t="str">
@@ -2571,7 +2568,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
@@ -2601,7 +2598,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8" t="str">
@@ -2640,7 +2637,7 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8" t="str">
@@ -2651,12 +2648,12 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -2679,7 +2676,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8" t="str">
@@ -2716,7 +2713,7 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8" t="str">
@@ -2733,7 +2730,7 @@
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -2757,7 +2754,7 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="8" t="str">
@@ -2774,7 +2771,7 @@
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -2798,7 +2795,7 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8" t="str">
@@ -2814,7 +2811,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -2837,7 +2834,7 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="8" t="str">
@@ -2854,7 +2851,7 @@
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -2878,7 +2875,7 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="8" t="str">
@@ -2921,7 +2918,7 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="8" t="str">
@@ -2964,7 +2961,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="8" t="str">
@@ -2977,11 +2974,11 @@
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -3005,7 +3002,7 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="8" t="str">
@@ -3046,7 +3043,7 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="8" t="str">
@@ -3057,14 +3054,14 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -3087,7 +3084,7 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="8" t="str">
@@ -3100,11 +3097,11 @@
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -3128,7 +3125,7 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8" t="str">
@@ -3143,10 +3140,10 @@
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -3169,7 +3166,7 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8" t="str">
@@ -3180,11 +3177,11 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -3208,7 +3205,7 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8" t="str">
@@ -3225,7 +3222,7 @@
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -3249,7 +3246,7 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8" t="str">
@@ -3266,7 +3263,7 @@
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -3290,7 +3287,7 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8" t="str">
@@ -3303,10 +3300,10 @@
       <c r="H59" s="17"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -3329,7 +3326,7 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8" t="str">
@@ -3345,7 +3342,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -3368,7 +3365,7 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="8" t="str">
@@ -3379,11 +3376,11 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -3407,7 +3404,7 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="8" t="str">
@@ -3424,7 +3421,7 @@
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -3448,7 +3445,7 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="8" t="str">
@@ -3464,7 +3461,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -3487,7 +3484,7 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="8" t="str">
@@ -3504,7 +3501,7 @@
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -3528,7 +3525,7 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="8" t="str">
@@ -3545,7 +3542,7 @@
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -3569,7 +3566,7 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="8" t="str">
@@ -3584,10 +3581,10 @@
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -3610,7 +3607,7 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="8" t="str">
@@ -3627,7 +3624,7 @@
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
@@ -3651,7 +3648,7 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="8" t="str">
@@ -3667,7 +3664,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -3690,7 +3687,7 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="8" t="str">
@@ -3707,7 +3704,7 @@
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -3731,7 +3728,7 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="8" t="str">
@@ -3748,7 +3745,7 @@
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -3772,7 +3769,7 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="8" t="str">
@@ -3813,7 +3810,7 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="8" t="str">
@@ -3826,11 +3823,11 @@
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -3854,7 +3851,7 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="8" t="str">
@@ -3867,11 +3864,11 @@
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -3895,7 +3892,7 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="8" t="str">
@@ -3908,7 +3905,7 @@
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7" t="s">
@@ -3936,7 +3933,7 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="8" t="str">
@@ -3947,7 +3944,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7" t="s">
@@ -3977,7 +3974,7 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="8" t="str">
@@ -3994,7 +3991,7 @@
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -4018,7 +4015,7 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="8" t="str">
@@ -4035,7 +4032,7 @@
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -4059,7 +4056,7 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="8" t="str">
@@ -4074,7 +4071,7 @@
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -4098,7 +4095,7 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="8" t="str">
@@ -4111,11 +4108,11 @@
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -4139,7 +4136,7 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="8" t="str">
@@ -4150,14 +4147,14 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -4180,7 +4177,7 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="8" t="str">
@@ -4197,7 +4194,7 @@
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -4221,7 +4218,7 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="8" t="str">
@@ -4262,7 +4259,7 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="8" t="str">
@@ -4279,7 +4276,7 @@
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -4303,7 +4300,7 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="8" t="str">
@@ -4317,7 +4314,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -4340,7 +4337,7 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8" t="str">
@@ -4379,7 +4376,7 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8" t="str">
@@ -4394,7 +4391,7 @@
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
@@ -4418,7 +4415,7 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="8" t="str">
@@ -4435,7 +4432,7 @@
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
@@ -4459,7 +4456,7 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="8" t="str">
@@ -4476,7 +4473,7 @@
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
@@ -4500,7 +4497,7 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8" t="str">
@@ -4517,7 +4514,7 @@
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
@@ -4541,7 +4538,7 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8" t="str">
@@ -4558,7 +4555,7 @@
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -4582,7 +4579,7 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8" t="str">
@@ -4598,7 +4595,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
@@ -4621,7 +4618,7 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8" t="str">
@@ -4636,10 +4633,10 @@
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
@@ -4662,7 +4659,7 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="8" t="str">
@@ -4679,7 +4676,7 @@
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -4703,7 +4700,7 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="8" t="str">
@@ -4720,10 +4717,10 @@
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -4746,7 +4743,7 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="8" t="str">
@@ -4757,12 +4754,12 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -4785,7 +4782,7 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="8" t="str">
@@ -4801,7 +4798,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -4824,7 +4821,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8" t="str">
@@ -4840,7 +4837,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -4863,7 +4860,7 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8" t="str">
@@ -4881,7 +4878,7 @@
         <v>29</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -4904,7 +4901,7 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="8" t="str">
@@ -4945,7 +4942,7 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="8" t="str">
@@ -4959,7 +4956,7 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -4982,7 +4979,7 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="8" t="str">
@@ -4999,7 +4996,7 @@
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -5023,7 +5020,7 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="8" t="str">
@@ -5036,11 +5033,11 @@
       </c>
       <c r="G102" s="9"/>
       <c r="H102" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -5064,7 +5061,7 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="8" t="str">
@@ -5081,7 +5078,7 @@
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -5105,7 +5102,7 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="8" t="str">
@@ -5121,7 +5118,7 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -30283,7 +30280,7 @@
         <v>13.0</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -30291,7 +30288,7 @@
         <v>18.0</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -30307,7 +30304,7 @@
         <v>27.0</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -30315,7 +30312,7 @@
         <v>28.0</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -30323,7 +30320,7 @@
         <v>30.0</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -30331,7 +30328,7 @@
         <v>35.0</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -30339,7 +30336,7 @@
         <v>40.0</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -30347,7 +30344,7 @@
         <v>48.0</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -30355,7 +30352,7 @@
         <v>49.0</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -30363,7 +30360,7 @@
         <v>51.0</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -30371,7 +30368,7 @@
         <v>70.0</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -30379,7 +30376,7 @@
         <v>74.0</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -30387,7 +30384,7 @@
         <v>98.0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -31432,57 +31429,57 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -31490,67 +31487,67 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1"/>
